--- a/Modbus_Tags.xlsx
+++ b/Modbus_Tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{B7904080-CCBA-4F78-8C48-86C7BF03CEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD141FE7-5B60-413F-8C8E-24EB51CA6F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Flow Rates" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
   <si>
     <t>Data Type</t>
   </si>
@@ -417,9 +416,6 @@
     <t>Channel 7 Output</t>
   </si>
   <si>
-    <t>E-Stop - MB_I[0]</t>
-  </si>
-  <si>
     <t>Mixer On/Off - MB_C[8]</t>
   </si>
   <si>
@@ -568,6 +564,42 @@
   </si>
   <si>
     <t>ProductionFinishPopUp</t>
+  </si>
+  <si>
+    <t>E-Stop - MB_C[13]</t>
+  </si>
+  <si>
+    <t>Station #1</t>
+  </si>
+  <si>
+    <t>Station #2</t>
+  </si>
+  <si>
+    <t>Station #3</t>
+  </si>
+  <si>
+    <t>Station #4</t>
+  </si>
+  <si>
+    <t>Station #5</t>
+  </si>
+  <si>
+    <t>Station #6</t>
+  </si>
+  <si>
+    <t>Gallon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>MB_HR[15]</t>
   </si>
 </sst>
 </file>
@@ -612,7 +644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +660,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,26 +742,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,6 +782,6438 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Station #1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4063123359580052"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22895603674540682"/>
+                  <c:y val="1.3472222222222222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1437.6996805111821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1460.4462474645031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1495.6377233070211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1565.2173913043478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1588.7025595763459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86DF-4127-AABC-209E0A6FE9EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789901375"/>
+        <c:axId val="1789899935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789901375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gallons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789899935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1789899935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate (mL/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789901375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Station #3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4063123359580052"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22895603674540682"/>
+                  <c:y val="4.2129629629629626E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1431.9809069212411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1444.6227929373995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1438.8489208633093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1466.9926650366749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1477.2260976610587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1575.4923413566739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67A6-4D2C-97D9-8795929DB2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789901375"/>
+        <c:axId val="1789899935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789901375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gallons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789899935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1789899935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate (mL/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789901375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Station #5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4063123359580052"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22617825896762905"/>
+                  <c:y val="-3.6555847185768446E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1387.8180416345413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1385.148133897653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1424.6141669964386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1412.3185562965871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1481.4814814814813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1578.255151249452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1F6-4B73-AC2F-2EE688CE4C05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789901375"/>
+        <c:axId val="1789899935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789901375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gallons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789899935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1789899935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate (mL/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789901375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Station #2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4063123359580052"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2845115923009624"/>
+                  <c:y val="1.8101851851851852E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1434.2629482071713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1443.4643143544506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1472.39263803681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1525.4237288135591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1546.3917525773195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1528.6624203821655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2013-49D3-9378-8BD36B738D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789901375"/>
+        <c:axId val="1789899935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789901375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gallons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789899935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1789899935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate (mL/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789901375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Station #4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4063123359580052"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21106714785651798"/>
+                  <c:y val="-0.13368110236220473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1379.8390187811422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1429.1385470424771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1335.8070500927645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1445.7831325301206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1457.48987854251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1589.4039735099338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4370-409B-AA31-30811707145C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789901375"/>
+        <c:axId val="1789899935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789901375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gallons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789899935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1789899935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate (mL/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789901375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Station #6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4063123359580052"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19006714785651793"/>
+                  <c:y val="-3.0059784193642462E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flow Rates'!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1410.6583072100314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1410.6583072100314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1443.4643143544506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1421.2396367943152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1448.1094127111826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1565.2173913043478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F274-41D5-9B6E-0BC25623FBF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789901375"/>
+        <c:axId val="1789899935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789901375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gallons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789899935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1789899935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow Rate (mL/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789901375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,6 +7260,237 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1629AC5F-0F58-FBBC-0D03-D1EB3C8F3B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A37642-5FAD-4382-BEDF-55C6F1F9820C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00960D3C-D6EF-4D29-BEBF-8D8AD6824954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E33DC22-9435-4506-A3EE-00F5BF016B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEC17A1-77AD-4A0B-A29C-E2CE83A27156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68352C7A-E7EA-491D-A851-6D72614751AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1109,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +8098,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -1512,36 +8216,36 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>48</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>49</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1581,7 +8285,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -1598,7 +8302,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -1610,12 +8314,12 @@
         <v>413</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -1624,15 +8328,15 @@
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
@@ -1644,12 +8348,12 @@
         <v>414</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
@@ -1658,15 +8362,15 @@
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1675,15 +8379,15 @@
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -1692,15 +8396,15 @@
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
@@ -1709,15 +8413,15 @@
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -1726,15 +8430,15 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>17</v>
@@ -1743,15 +8447,15 @@
         <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -1760,15 +8464,15 @@
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
@@ -1777,15 +8481,15 @@
         <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>164</v>
+      <c r="A39" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
@@ -1797,12 +8501,12 @@
         <v>415</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>172</v>
+      <c r="A40" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
@@ -1811,15 +8515,15 @@
         <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>173</v>
+      <c r="A41" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
@@ -1828,15 +8532,15 @@
         <v>3</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>175</v>
+      <c r="A42" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
@@ -1845,10 +8549,21 @@
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="2">
+        <v>416</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +8577,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,13 +8614,13 @@
         <v>110</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,7 +8724,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,7 +8732,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,10 +8786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2109,11 +8824,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>174</v>
+      <c r="B6" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,10 +8848,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2162,7 +8877,7 @@
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2181,51 +8896,43 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -2240,25 +8947,555 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1DF2F-E470-453D-BC18-3CDC39A2AA52}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.42578125" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="19"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>870</v>
+    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>25.04</v>
+      </c>
+      <c r="C2" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>25.14</v>
+      </c>
+      <c r="E2" s="6">
+        <v>26.09</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25.94</v>
+      </c>
+      <c r="G2" s="18">
+        <v>25.96</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:K6" si="0">600/(B2/60)</f>
+        <v>1437.6996805111821</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" si="0"/>
+        <v>1434.2629482071713</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L6" si="1">600/(D2/60)</f>
+        <v>1431.9809069212411</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:M6" si="2">600/(E2/60)</f>
+        <v>1379.8390187811422</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:O6" si="3">600/(F2/60)</f>
+        <v>1387.8180416345413</v>
+      </c>
+      <c r="O2" s="6">
+        <f>600/(G3/60)</f>
+        <v>1410.6583072100314</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="6">
+        <f t="shared" ref="Q2:Q6" si="4">AVERAGE(J2:O2)</f>
+        <v>1413.7098172108851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>24.65</v>
+      </c>
+      <c r="C3" s="6">
+        <v>24.94</v>
+      </c>
+      <c r="D3" s="6">
+        <v>24.92</v>
+      </c>
+      <c r="E3" s="6">
+        <v>25.19</v>
+      </c>
+      <c r="F3" s="6">
+        <v>25.99</v>
+      </c>
+      <c r="G3" s="6">
+        <v>25.52</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>1460.4462474645031</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>1443.4643143544506</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="1"/>
+        <v>1444.6227929373995</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="2"/>
+        <v>1429.1385470424771</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="3"/>
+        <v>1385.148133897653</v>
+      </c>
+      <c r="O3" s="6">
+        <f>600/(G3/60)</f>
+        <v>1410.6583072100314</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="6">
+        <f t="shared" si="4"/>
+        <v>1428.9130571510859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>24.07</v>
+      </c>
+      <c r="C4" s="6">
+        <v>24.45</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25.02</v>
+      </c>
+      <c r="E4" s="6">
+        <v>26.95</v>
+      </c>
+      <c r="F4" s="6">
+        <v>25.27</v>
+      </c>
+      <c r="G4" s="6">
+        <v>24.94</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>1495.6377233070211</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>1472.39263803681</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>1438.8489208633093</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="2"/>
+        <v>1335.8070500927645</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="3"/>
+        <v>1424.6141669964386</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" ref="O2:O6" si="5">600/(G4/60)</f>
+        <v>1443.4643143544506</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="6">
+        <f t="shared" si="4"/>
+        <v>1435.127468941799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>24.54</v>
+      </c>
+      <c r="E5" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25.49</v>
+      </c>
+      <c r="G5" s="6">
+        <v>25.33</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>1525.4237288135591</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>1466.9926650366749</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="2"/>
+        <v>1445.7831325301206</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="3"/>
+        <v>1412.3185562965871</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="5"/>
+        <v>1421.2396367943152</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="6">
+        <f t="shared" si="4"/>
+        <v>1461.9596199118762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6">
+        <v>23.28</v>
+      </c>
+      <c r="D6" s="6">
+        <v>24.37</v>
+      </c>
+      <c r="E6" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>24.86</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>1565.2173913043478</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>1546.3917525773195</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>1477.2260976610587</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>1457.48987854251</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="3"/>
+        <v>1481.4814814814813</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="5"/>
+        <v>1448.1094127111826</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="6">
+        <f t="shared" si="4"/>
+        <v>1495.98600237965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>22.66</v>
+      </c>
+      <c r="C7" s="6">
+        <v>23.55</v>
+      </c>
+      <c r="D7" s="6">
+        <v>22.85</v>
+      </c>
+      <c r="E7" s="6">
+        <v>22.65</v>
+      </c>
+      <c r="F7" s="6">
+        <v>22.81</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="6">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6">
+        <f>600/(B7/60)</f>
+        <v>1588.7025595763459</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ref="K7:O7" si="6">600/(C7/60)</f>
+        <v>1528.6624203821655</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="6"/>
+        <v>1575.4923413566739</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="6"/>
+        <v>1589.4039735099338</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="6"/>
+        <v>1578.255151249452</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="6"/>
+        <v>1565.2173913043478</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="6">
+        <f>AVERAGE(J7:O7)</f>
+        <v>1570.9556395631532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="6">
+        <f>AVERAGE(B2:B7)</f>
+        <v>23.903333333333332</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:G9" si="7">AVERAGE(C2:C7)</f>
+        <v>24.153333333333336</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="7"/>
+        <v>24.473333333333333</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="7"/>
+        <v>25.08</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="7"/>
+        <v>24.966666666666665</v>
+      </c>
+      <c r="G9" s="6">
+        <f>AVERAGE(G3:G7)</f>
+        <v>24.729999999999997</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="6">
+        <f>AVERAGE(J2:J7)</f>
+        <v>1507.9506003605668</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:Q9" si="8">AVERAGE(K2:K7)</f>
+        <v>1491.7663003952459</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="8"/>
+        <v>1472.5272874627262</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="8"/>
+        <v>1439.5769334164913</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="8"/>
+        <v>1444.9392552593588</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="8"/>
+        <v>1449.8912282640597</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="6">
+        <f t="shared" si="8"/>
+        <v>1467.7752675264082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q13" s="19">
+        <v>30.677</v>
+      </c>
+      <c r="R13" s="19">
+        <v>1400.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q14" s="19">
+        <v>23.82</v>
+      </c>
+      <c r="R14" s="19">
+        <v>1408.4</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q15" s="19">
+        <v>24.1</v>
+      </c>
+      <c r="R15" s="19">
+        <v>1388.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q16" s="19">
+        <v>35.51</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1315.3</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="19">
+        <v>35.11</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1322.1</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="19">
+        <v>24.6</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1363.6</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="19">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modbus_Tags.xlsx
+++ b/Modbus_Tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e0d199abbb6f1b9/Documents/GitHub/Alchemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD141FE7-5B60-413F-8C8E-24EB51CA6F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,17 +754,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7815,21 +7811,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="3"/>
+    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7846,7 +7842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -7863,7 +7859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7880,7 +7876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -7897,7 +7893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -7914,7 +7910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -7931,7 +7927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -7951,7 +7947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -7991,7 +7987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -8011,7 +8007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -8051,7 +8047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8079,7 +8075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -8096,7 +8092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>128</v>
       </c>
@@ -8113,7 +8109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -8147,7 +8143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -8181,7 +8177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -8198,7 +8194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -8215,7 +8211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>76</v>
       </c>
@@ -8232,7 +8228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>77</v>
       </c>
@@ -8249,7 +8245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -8266,7 +8262,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -8283,7 +8279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>131</v>
       </c>
@@ -8300,7 +8296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
@@ -8317,7 +8313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>132</v>
       </c>
@@ -8334,7 +8330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -8351,7 +8347,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>140</v>
       </c>
@@ -8368,7 +8364,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
@@ -8385,7 +8381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>158</v>
       </c>
@@ -8419,7 +8415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>159</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>160</v>
       </c>
@@ -8453,7 +8449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>161</v>
       </c>
@@ -8470,7 +8466,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>162</v>
       </c>
@@ -8487,7 +8483,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
         <v>163</v>
       </c>
@@ -8504,7 +8500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="12" t="s">
         <v>171</v>
       </c>
@@ -8521,7 +8517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="12" t="s">
         <v>172</v>
       </c>
@@ -8538,7 +8534,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="13" t="s">
         <v>174</v>
       </c>
@@ -8555,14 +8551,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="13" t="s">
         <v>185</v>
       </c>
       <c r="D43" s="2">
         <v>416</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="10" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8580,17 +8576,17 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6"/>
       <c r="B1" s="9" t="s">
         <v>99</v>
@@ -8603,7 +8599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
@@ -8623,7 +8619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>92</v>
       </c>
@@ -8639,7 +8635,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
@@ -8655,7 +8651,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>94</v>
       </c>
@@ -8671,7 +8667,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
@@ -8683,7 +8679,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>96</v>
       </c>
@@ -8695,7 +8691,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -8707,7 +8703,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>98</v>
       </c>
@@ -8719,7 +8715,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
         <v>118</v>
       </c>
@@ -8727,7 +8723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="6" t="s">
         <v>119</v>
       </c>
@@ -8735,31 +8731,31 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="6" t="s">
         <v>124</v>
       </c>
@@ -8779,19 +8775,19 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -8799,7 +8795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8815,7 +8811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8823,7 +8819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -8831,7 +8827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8839,7 +8835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8847,13 +8843,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -8861,7 +8857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="6">
         <v>0</v>
       </c>
@@ -8869,7 +8865,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -8880,7 +8876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -8896,43 +8892,43 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -8949,22 +8945,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1DF2F-E470-453D-BC18-3CDC39A2AA52}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.42578125" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.3984375" customWidth="1"/>
+    <col min="9" max="9" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="8" t="s">
         <v>182</v>
       </c>
@@ -8986,7 +8981,7 @@
       <c r="G1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="6" t="s">
         <v>182</v>
       </c>
@@ -9008,12 +9003,12 @@
       <c r="O1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9032,10 +9027,10 @@
       <c r="F2" s="6">
         <v>25.94</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <v>25.96</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="6">
         <v>1</v>
       </c>
@@ -9056,20 +9051,20 @@
         <v>1379.8390187811422</v>
       </c>
       <c r="N2" s="6">
-        <f t="shared" ref="N2:O6" si="3">600/(F2/60)</f>
+        <f t="shared" ref="N2:N6" si="3">600/(F2/60)</f>
         <v>1387.8180416345413</v>
       </c>
       <c r="O2" s="6">
         <f>600/(G3/60)</f>
         <v>1410.6583072100314</v>
       </c>
-      <c r="P2" s="17"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="6">
         <f t="shared" ref="Q2:Q6" si="4">AVERAGE(J2:O2)</f>
         <v>1413.7098172108851</v>
       </c>
     </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -9091,7 +9086,7 @@
       <c r="G3" s="6">
         <v>25.52</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="6">
         <v>2</v>
       </c>
@@ -9119,13 +9114,13 @@
         <f>600/(G3/60)</f>
         <v>1410.6583072100314</v>
       </c>
-      <c r="P3" s="17"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="6">
         <f t="shared" si="4"/>
         <v>1428.9130571510859</v>
       </c>
     </row>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9147,7 +9142,7 @@
       <c r="G4" s="6">
         <v>24.94</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="6">
         <v>3</v>
       </c>
@@ -9172,16 +9167,16 @@
         <v>1424.6141669964386</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O2:O6" si="5">600/(G4/60)</f>
+        <f t="shared" ref="O4:O6" si="5">600/(G4/60)</f>
         <v>1443.4643143544506</v>
       </c>
-      <c r="P4" s="17"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="6">
         <f t="shared" si="4"/>
         <v>1435.127468941799</v>
       </c>
     </row>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -9203,7 +9198,7 @@
       <c r="G5" s="6">
         <v>25.33</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="6">
         <v>4</v>
       </c>
@@ -9231,13 +9226,13 @@
         <f t="shared" si="5"/>
         <v>1421.2396367943152</v>
       </c>
-      <c r="P5" s="17"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="6">
         <f t="shared" si="4"/>
         <v>1461.9596199118762</v>
       </c>
     </row>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -9259,7 +9254,7 @@
       <c r="G6" s="6">
         <v>24.86</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="6">
         <v>5</v>
       </c>
@@ -9287,13 +9282,13 @@
         <f t="shared" si="5"/>
         <v>1448.1094127111826</v>
       </c>
-      <c r="P6" s="17"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="6">
         <f t="shared" si="4"/>
         <v>1495.98600237965</v>
       </c>
     </row>
-    <row r="7" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9315,7 +9310,7 @@
       <c r="G7" s="6">
         <v>23</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="6">
         <v>6</v>
       </c>
@@ -9343,32 +9338,32 @@
         <f t="shared" si="6"/>
         <v>1565.2173913043478</v>
       </c>
-      <c r="P7" s="17"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="6">
         <f>AVERAGE(J7:O7)</f>
         <v>1570.9556395631532</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="5.25" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="6" t="s">
         <v>184</v>
       </c>
@@ -9377,7 +9372,7 @@
         <v>23.903333333333332</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ref="C9:G9" si="7">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C9:F9" si="7">AVERAGE(C2:C7)</f>
         <v>24.153333333333336</v>
       </c>
       <c r="D9" s="6">
@@ -9396,7 +9391,7 @@
         <f>AVERAGE(G3:G7)</f>
         <v>24.729999999999997</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="6" t="s">
         <v>184</v>
       </c>
@@ -9424,72 +9419,72 @@
         <f t="shared" si="8"/>
         <v>1449.8912282640597</v>
       </c>
-      <c r="P9" s="17"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="6">
         <f t="shared" si="8"/>
         <v>1467.7752675264082</v>
       </c>
     </row>
-    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="F10" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q13" s="19">
+      <c r="H10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="Q13">
         <v>30.677</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13">
         <v>1400.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q14" s="19">
+    <row r="14" spans="1:19" ht="15">
+      <c r="Q14">
         <v>23.82</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14">
         <v>1408.4</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q15" s="19">
+    <row r="15" spans="1:19" ht="15">
+      <c r="Q15">
         <v>24.1</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15">
         <v>1388.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q16" s="19">
+    <row r="16" spans="1:19" ht="15">
+      <c r="Q16">
         <v>35.51</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16">
         <v>1315.3</v>
       </c>
     </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q17" s="19">
+    <row r="17" spans="17:18" ht="15">
+      <c r="Q17">
         <v>35.11</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17">
         <v>1322.1</v>
       </c>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q18" s="19">
+    <row r="18" spans="17:18" ht="15">
+      <c r="Q18">
         <v>24.6</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18">
         <v>1363.6</v>
       </c>
     </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q21" s="19">
+    <row r="21" spans="17:18" ht="15">
+      <c r="Q21">
         <v>26</v>
       </c>
     </row>

--- a/Modbus_Tags.xlsx
+++ b/Modbus_Tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e0d199abbb6f1b9/Documents/GitHub/Alchemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD141FE7-5B60-413F-8C8E-24EB51CA6F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{CD141FE7-5B60-413F-8C8E-24EB51CA6F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209846A2-4395-4E04-BB74-08554F37AB22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="4152" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="188">
   <si>
     <t>Data Type</t>
   </si>
@@ -131,21 +131,6 @@
     <t xml:space="preserve">Array Index </t>
   </si>
   <si>
-    <t>Phase Mix</t>
-  </si>
-  <si>
-    <t>Phase Initalize</t>
-  </si>
-  <si>
-    <t>Phase Idle</t>
-  </si>
-  <si>
-    <t>Phase Dispense</t>
-  </si>
-  <si>
-    <t>Phase End</t>
-  </si>
-  <si>
     <t>MB_HR[0]</t>
   </si>
   <si>
@@ -194,15 +179,9 @@
     <t>MB_C[13]</t>
   </si>
   <si>
-    <t>Internal Boolean Data</t>
-  </si>
-  <si>
     <t>011</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
     <t>013</t>
   </si>
   <si>
@@ -596,17 +575,41 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>EndTime</t>
-  </si>
-  <si>
     <t>MB_HR[15]</t>
+  </si>
+  <si>
+    <t>Station#1Offset</t>
+  </si>
+  <si>
+    <t>MB_HR[16]</t>
+  </si>
+  <si>
+    <t>MB_HR[17]</t>
+  </si>
+  <si>
+    <t>MB_HR[18]</t>
+  </si>
+  <si>
+    <t>MB_HR[19]</t>
+  </si>
+  <si>
+    <t>MB_HR[21]</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>1 = 1/10 a sec</t>
+  </si>
+  <si>
+    <t>MB_HR[20]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,7 +647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,18 +662,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -717,11 +714,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,9 +736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -748,14 +751,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,6 +760,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7809,23 +7825,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="3"/>
-    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7842,7 +7859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -7856,10 +7873,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7873,10 +7890,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -7890,10 +7907,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -7907,10 +7924,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -7924,10 +7941,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -7941,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -7961,13 +7976,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -7981,13 +7994,11 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -8001,13 +8012,11 @@
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -8021,13 +8030,11 @@
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -8041,15 +8048,13 @@
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -8057,27 +8062,40 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -8085,169 +8103,178 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
+      <c r="D16" s="2">
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>48</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>49</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
-        <v>47</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D24" s="2">
+        <v>410</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11">
-        <v>48</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11">
-        <v>49</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -8256,15 +8283,15 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -8273,15 +8300,15 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -8290,66 +8317,66 @@
         <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="2">
-        <v>413</v>
+      <c r="D28" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>134</v>
+      <c r="D29" s="2">
+        <v>414</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2">
-        <v>414</v>
+      <c r="D30" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
@@ -8357,16 +8384,16 @@
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>143</v>
+      <c r="D31" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -8374,16 +8401,16 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -8391,16 +8418,16 @@
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>151</v>
+      <c r="D33" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
@@ -8408,16 +8435,16 @@
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>152</v>
+      <c r="D34" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -8425,16 +8452,16 @@
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>153</v>
+      <c r="D35" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>17</v>
@@ -8442,16 +8469,16 @@
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>154</v>
+      <c r="D36" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -8459,50 +8486,50 @@
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>155</v>
+      <c r="D37" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>156</v>
+      <c r="D38" s="2">
+        <v>415</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="2">
-        <v>415</v>
+      <c r="D39" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="12" t="s">
-        <v>171</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
@@ -8510,16 +8537,16 @@
       <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>165</v>
+      <c r="D40" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
@@ -8527,44 +8554,137 @@
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>166</v>
+      <c r="D41" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13" t="s">
-        <v>174</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>170</v>
+      <c r="D42" s="2">
+        <v>417</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D43" s="2">
-        <v>416</v>
-      </c>
-      <c r="E43" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>419</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>420</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>421</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>422</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8576,190 +8696,190 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="26.59765625" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8775,160 +8895,160 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15">
+      <c r="B6" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -8949,490 +9069,490 @@
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.3984375" customWidth="1"/>
-    <col min="9" max="9" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.3984375" customWidth="1"/>
+    <col min="16" max="16" width="1.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>25.04</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>25.1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>25.14</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>26.09</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>25.94</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>25.96</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="6">
+      <c r="H2" s="12"/>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f t="shared" ref="J2:K6" si="0">600/(B2/60)</f>
         <v>1437.6996805111821</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
         <v>1434.2629482071713</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <f t="shared" ref="L2:L6" si="1">600/(D2/60)</f>
         <v>1431.9809069212411</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <f t="shared" ref="M2:M6" si="2">600/(E2/60)</f>
         <v>1379.8390187811422</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <f t="shared" ref="N2:N6" si="3">600/(F2/60)</f>
         <v>1387.8180416345413</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>600/(G3/60)</f>
         <v>1410.6583072100314</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="6">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="5">
         <f t="shared" ref="Q2:Q6" si="4">AVERAGE(J2:O2)</f>
         <v>1413.7098172108851</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="6">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>24.65</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>24.94</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>24.92</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>25.19</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>25.99</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>25.52</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="6">
+      <c r="H3" s="12"/>
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>1460.4462474645031</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>1443.4643143544506</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <f t="shared" si="1"/>
         <v>1444.6227929373995</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f t="shared" si="2"/>
         <v>1429.1385470424771</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <f t="shared" si="3"/>
         <v>1385.148133897653</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <f>600/(G3/60)</f>
         <v>1410.6583072100314</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="6">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="5">
         <f t="shared" si="4"/>
         <v>1428.9130571510859</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="6">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>24.07</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>24.45</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>25.02</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>26.95</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>25.27</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>24.94</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="6">
+      <c r="H4" s="12"/>
+      <c r="I4" s="5">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>1495.6377233070211</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>1472.39263803681</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>1438.8489208633093</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f t="shared" si="2"/>
         <v>1335.8070500927645</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f t="shared" si="3"/>
         <v>1424.6141669964386</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f t="shared" ref="O4:O6" si="5">600/(G4/60)</f>
         <v>1443.4643143544506</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="6">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="5">
         <f t="shared" si="4"/>
         <v>1435.127468941799</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="6">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>24</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>23.6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>24.54</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>24.9</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>25.49</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>25.33</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="6">
+      <c r="H5" s="12"/>
+      <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>1525.4237288135591</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>1466.9926650366749</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <f t="shared" si="2"/>
         <v>1445.7831325301206</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f t="shared" si="3"/>
         <v>1412.3185562965871</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <f t="shared" si="5"/>
         <v>1421.2396367943152</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="6">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="5">
         <f t="shared" si="4"/>
         <v>1461.9596199118762</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>23</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>23.28</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>24.37</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>24.7</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>24.3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>24.86</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="6">
+      <c r="H6" s="12"/>
+      <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>1565.2173913043478</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>1546.3917525773195</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>1477.2260976610587</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="2"/>
         <v>1457.48987854251</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f t="shared" si="3"/>
         <v>1481.4814814814813</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <f t="shared" si="5"/>
         <v>1448.1094127111826</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="6">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="5">
         <f t="shared" si="4"/>
         <v>1495.98600237965</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
-      <c r="A7" s="6">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>22.66</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>23.55</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>22.85</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>22.65</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>22.81</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>23</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="6">
+      <c r="H7" s="12"/>
+      <c r="I7" s="5">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>600/(B7/60)</f>
         <v>1588.7025595763459</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" ref="K7:O7" si="6">600/(C7/60)</f>
         <v>1528.6624203821655</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <f t="shared" si="6"/>
         <v>1575.4923413566739</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f t="shared" si="6"/>
         <v>1589.4039735099338</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <f t="shared" si="6"/>
         <v>1578.255151249452</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <f t="shared" si="6"/>
         <v>1565.2173913043478</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="6">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="5">
         <f>AVERAGE(J7:O7)</f>
         <v>1570.9556395631532</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" ht="15">
-      <c r="A9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="5">
         <f>AVERAGE(B2:B7)</f>
         <v>23.903333333333332</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f t="shared" ref="C9:F9" si="7">AVERAGE(C2:C7)</f>
         <v>24.153333333333336</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="7"/>
         <v>24.473333333333333</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="7"/>
         <v>25.08</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="7"/>
         <v>24.966666666666665</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>AVERAGE(G3:G7)</f>
         <v>24.729999999999997</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="H9" s="12"/>
+      <c r="I9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="5">
         <f>AVERAGE(J2:J7)</f>
         <v>1507.9506003605668</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" ref="K9:Q9" si="8">AVERAGE(K2:K7)</f>
         <v>1491.7663003952459</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <f t="shared" si="8"/>
         <v>1472.5272874627262</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f t="shared" si="8"/>
         <v>1439.5769334164913</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <f t="shared" si="8"/>
         <v>1444.9392552593588</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <f t="shared" si="8"/>
         <v>1449.8912282640597</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="6">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="5">
         <f t="shared" si="8"/>
         <v>1467.7752675264082</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="13" spans="1:19" ht="15">
+        <v>176</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q13">
         <v>30.677</v>
       </c>
@@ -9440,7 +9560,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q14">
         <v>23.82</v>
       </c>
@@ -9448,10 +9568,10 @@
         <v>1408.4</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q15">
         <v>24.1</v>
       </c>
@@ -9459,7 +9579,7 @@
         <v>1388.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q16">
         <v>35.51</v>
       </c>
@@ -9467,7 +9587,7 @@
         <v>1315.3</v>
       </c>
     </row>
-    <row r="17" spans="17:18" ht="15">
+    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q17">
         <v>35.11</v>
       </c>
@@ -9475,7 +9595,7 @@
         <v>1322.1</v>
       </c>
     </row>
-    <row r="18" spans="17:18" ht="15">
+    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q18">
         <v>24.6</v>
       </c>
@@ -9483,7 +9603,7 @@
         <v>1363.6</v>
       </c>
     </row>
-    <row r="21" spans="17:18" ht="15">
+    <row r="21" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q21">
         <v>26</v>
       </c>

--- a/Modbus_Tags.xlsx
+++ b/Modbus_Tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e0d199abbb6f1b9/Documents/GitHub/Alchemy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{CD141FE7-5B60-413F-8C8E-24EB51CA6F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209846A2-4395-4E04-BB74-08554F37AB22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CC4C7-E746-4805-AB4C-2E4A5F55BC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="0" yWindow="5535" windowWidth="19200" windowHeight="15345" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
   <si>
     <t>Data Type</t>
   </si>
@@ -599,10 +599,34 @@
     <t>Unused</t>
   </si>
   <si>
-    <t>1 = 1/10 a sec</t>
-  </si>
-  <si>
     <t>MB_HR[20]</t>
+  </si>
+  <si>
+    <t>Station#2Offset</t>
+  </si>
+  <si>
+    <t>Station#3Offset</t>
+  </si>
+  <si>
+    <t>Station#4Offset</t>
+  </si>
+  <si>
+    <t>Station#5Offset</t>
+  </si>
+  <si>
+    <t>Station#6Offset</t>
+  </si>
+  <si>
+    <t>int_16</t>
+  </si>
+  <si>
+    <t>1 = 1/4 a sec</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>ParamterHide</t>
   </si>
 </sst>
 </file>
@@ -727,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,31 +778,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7825,24 +7839,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7859,7 +7873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7893,7 +7907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -7910,7 +7924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -7927,7 +7941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -7944,7 +7958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -7960,9 +7974,9 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -7978,9 +7992,9 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -7996,9 +8010,9 @@
       <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -8014,9 +8028,9 @@
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -8032,9 +8046,9 @@
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -8050,9 +8064,9 @@
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -8068,14 +8082,13 @@
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -8084,18 +8097,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -8104,38 +8115,38 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
-        <v>42</v>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
@@ -8144,18 +8155,18 @@
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -8164,15 +8175,18 @@
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -8181,15 +8195,15 @@
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -8198,15 +8212,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
@@ -8215,32 +8229,32 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
         <v>47</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="10">
-        <v>48</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>50</v>
@@ -8249,32 +8263,32 @@
         <v>3</v>
       </c>
       <c r="D23" s="10">
+        <v>48</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10">
         <v>49</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>410</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -8283,15 +8297,15 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -8300,15 +8314,15 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -8317,66 +8331,66 @@
         <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>127</v>
+      <c r="D28" s="2">
+        <v>413</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2">
-        <v>414</v>
+      <c r="D29" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>136</v>
+      <c r="D30" s="2">
+        <v>414</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
@@ -8385,15 +8399,15 @@
         <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -8402,15 +8416,15 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -8419,15 +8433,15 @@
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
@@ -8436,15 +8450,15 @@
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -8453,15 +8467,15 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>17</v>
@@ -8470,15 +8484,15 @@
         <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -8487,49 +8501,49 @@
         <v>3</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="2">
-        <v>415</v>
+      <c r="D38" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>164</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>158</v>
+      <c r="D39" s="2">
+        <v>415</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
@@ -8538,15 +8552,15 @@
         <v>3</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
@@ -8555,130 +8569,147 @@
         <v>3</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2">
-        <v>417</v>
+      <c r="D42" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="2">
+        <v>421</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2">
         <v>422</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>186</v>
+      <c r="F48" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8696,17 +8727,17 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
         <v>92</v>
@@ -8719,7 +8750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>84</v>
       </c>
@@ -8739,7 +8770,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
@@ -8755,7 +8786,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -8771,7 +8802,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -8787,7 +8818,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
@@ -8799,7 +8830,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -8811,7 +8842,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -8823,7 +8854,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -8835,7 +8866,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>111</v>
       </c>
@@ -8843,7 +8874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>112</v>
       </c>
@@ -8851,31 +8882,31 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>117</v>
       </c>
@@ -8895,19 +8926,19 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -8915,7 +8946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -8923,7 +8954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8931,7 +8962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8939,7 +8970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -8947,7 +8978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8955,7 +8986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8963,13 +8994,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -8977,7 +9008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -8985,7 +9016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -8996,7 +9027,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -9004,7 +9035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -9012,43 +9043,43 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -9069,17 +9100,17 @@
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.44140625" customWidth="1"/>
+    <col min="16" max="16" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>175</v>
       </c>
@@ -9128,7 +9159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9184,7 +9215,7 @@
         <v>1413.7098172108851</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9240,7 +9271,7 @@
         <v>1428.9130571510859</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9296,7 +9327,7 @@
         <v>1435.127468941799</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9352,7 +9383,7 @@
         <v>1461.9596199118762</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9408,7 +9439,7 @@
         <v>1495.98600237965</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9464,7 +9495,7 @@
         <v>1570.9556395631532</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -9483,7 +9514,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>177</v>
       </c>
@@ -9545,14 +9576,14 @@
         <v>1467.7752675264082</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>176</v>
       </c>
       <c r="H10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q13">
         <v>30.677</v>
       </c>
@@ -9560,7 +9591,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q14">
         <v>23.82</v>
       </c>
@@ -9571,7 +9602,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q15">
         <v>24.1</v>
       </c>
@@ -9579,7 +9610,7 @@
         <v>1388.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q16">
         <v>35.51</v>
       </c>
@@ -9587,7 +9618,7 @@
         <v>1315.3</v>
       </c>
     </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q17">
         <v>35.11</v>
       </c>
@@ -9595,7 +9626,7 @@
         <v>1322.1</v>
       </c>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q18">
         <v>24.6</v>
       </c>
@@ -9603,7 +9634,7 @@
         <v>1363.6</v>
       </c>
     </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>26</v>
       </c>

--- a/Modbus_Tags.xlsx
+++ b/Modbus_Tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CC4C7-E746-4805-AB4C-2E4A5F55BC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3207A4-EB02-4FE3-A7DE-3B9DAC3158F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5535" windowWidth="19200" windowHeight="15345" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -7841,8 +7841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
